--- a/R-Track/Course_02_DS_for_Business_Part_2/DS4B_HR201_Business_Analysis/05_evaluation/recommendation_strategy_development_sheet.xlsx
+++ b/R-Track/Course_02_DS_for_Business_Part_2/DS4B_HR201_Business_Analysis/05_evaluation/recommendation_strategy_development_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdanc\Desktop\HR_201_Employee_Attrition_Project\06_Deployment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myplace.bms.com/personal/steven_ponce_bms_com/Documents/RStudio/Data_Science_for_Business/R-Track/Course_02_DS_for_Business_Part_2/DS4B_HR201_Business_Analysis/05_evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8BFAADD7-5517-414A-B370-CD3FB25C09FC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="10_ncr:8100000_{8BFAADD7-5517-414A-B370-CD3FB25C09FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64470A62-9F9A-47EB-8B5A-ED52BD5BBC04}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strategy Worksheet" sheetId="1" r:id="rId1"/>
@@ -585,9 +585,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/R-Track/Course_02_DS_for_Business_Part_2/DS4B_HR201_Business_Analysis/05_evaluation/recommendation_strategy_development_sheet.xlsx
+++ b/R-Track/Course_02_DS_for_Business_Part_2/DS4B_HR201_Business_Analysis/05_evaluation/recommendation_strategy_development_sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myplace.bms.com/personal/steven_ponce_bms_com/Documents/RStudio/Data_Science_for_Business/R-Track/Course_02_DS_for_Business_Part_2/DS4B_HR201_Business_Analysis/05_evaluation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\poncest\OneDrive - Bristol Myers Squibb\RStudio\Data_Science_for_Business\R-Track\Course_02_DS_for_Business_Part_2\DS4B_HR201_Business_Analysis\05_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="10_ncr:8100000_{8BFAADD7-5517-414A-B370-CD3FB25C09FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64470A62-9F9A-47EB-8B5A-ED52BD5BBC04}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA6F58B-1B57-4C34-8265-1010BD2473DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>Feature</t>
   </si>
@@ -142,12 +142,93 @@
   <si>
     <t xml:space="preserve"> Used to investigate the relationship between values within features and the target (Attrition = Yes)</t>
   </si>
+  <si>
+    <t>Employees with high OT are leaving</t>
+  </si>
+  <si>
+    <t>Reduce overtime</t>
+  </si>
+  <si>
+    <t>Promote high performers faster</t>
+  </si>
+  <si>
+    <t>Tie promotion if low to advance faster</t>
+  </si>
+  <si>
+    <t>Low income - Bin 1 more likely to leave</t>
+  </si>
+  <si>
+    <t>Zero stock option - more likely to leave</t>
+  </si>
+  <si>
+    <t>Single is more to leave</t>
+  </si>
+  <si>
+    <t>YAC -High - Likely to stay /  YAC - Low - Likely to leave</t>
+  </si>
+  <si>
+    <t>TWY -High - Likely to stay /  TWYC - Low - Likely to leave</t>
+  </si>
+  <si>
+    <t>Tie Low TWY to training &amp; formation/mentorship</t>
+  </si>
+  <si>
+    <t>See TWY</t>
+  </si>
+  <si>
+    <t>Employees with job Level 1 / job Level 2 are straying</t>
+  </si>
+  <si>
+    <t>More time in current role related to lower attrition</t>
+  </si>
+  <si>
+    <t>Incentivize specialize or promote</t>
+  </si>
+  <si>
+    <t>Certain job roles have higher attrition - need to be monitored closely</t>
+  </si>
+  <si>
+    <t>Skip - include in Executive Report</t>
+  </si>
+  <si>
+    <t>Skip - covered by TWY</t>
+  </si>
+  <si>
+    <t>See YiCR</t>
+  </si>
+  <si>
+    <t>Skip - covered by YiCR</t>
+  </si>
+  <si>
+    <t>Employees with low environment satisfaction are more likely to leave</t>
+  </si>
+  <si>
+    <t>Improve the workplace environment</t>
+  </si>
+  <si>
+    <t>Bad worklife balance - more likely to leave</t>
+  </si>
+  <si>
+    <t>Improve the workplace balance</t>
+  </si>
+  <si>
+    <t>More BT- more like to leave / Less BT - more likely to stay</t>
+  </si>
+  <si>
+    <t>Reduce business travel where possible</t>
+  </si>
+  <si>
+    <t>High JI - Likely to stay / Low JI - Likely to leave</t>
+  </si>
+  <si>
+    <t>Create personal development plan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +262,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -202,12 +291,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -316,7 +406,7 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Potential Strategy"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Strategy Group"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -586,8 +676,8 @@
   <dimension ref="B1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,108 +733,198 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>18</v>
       </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>3</v>
       </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>16</v>
       </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>4</v>
       </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>17</v>
       </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>13</v>
       </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>14</v>
       </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
@@ -752,7 +932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:4" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/R-Track/Course_02_DS_for_Business_Part_2/DS4B_HR201_Business_Analysis/05_evaluation/recommendation_strategy_development_sheet.xlsx
+++ b/R-Track/Course_02_DS_for_Business_Part_2/DS4B_HR201_Business_Analysis/05_evaluation/recommendation_strategy_development_sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\poncest\OneDrive - Bristol Myers Squibb\RStudio\Data_Science_for_Business\R-Track\Course_02_DS_for_Business_Part_2\DS4B_HR201_Business_Analysis\05_evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myplace.bms.com/personal/steven_ponce_bms_com/Documents/RStudio/Data_Science_for_Business/R-Track/Course_02_DS_for_Business_Part_2/DS4B_HR201_Business_Analysis/05_evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA6F58B-1B57-4C34-8265-1010BD2473DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{4EA6F58B-1B57-4C34-8265-1010BD2473DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36093969-E037-4B3B-8A42-ACEE42553CF0}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>Feature</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Promote high performers faster</t>
   </si>
   <si>
-    <t>Tie promotion if low to advance faster</t>
-  </si>
-  <si>
     <t>Low income - Bin 1 more likely to leave</t>
   </si>
   <si>
@@ -222,6 +219,45 @@
   </si>
   <si>
     <t>Create personal development plan</t>
+  </si>
+  <si>
+    <t>Bin 4 (High) More Likely to leave</t>
+  </si>
+  <si>
+    <t>JS -High - Likely to stay /  JS - Low - Likely to leave</t>
+  </si>
+  <si>
+    <t>Low - create personal development plan / High - mentorship roles</t>
+  </si>
+  <si>
+    <t>R&amp;D - Likely to stay / Sales - Likely to leave</t>
+  </si>
+  <si>
+    <t>Technical Degree - More education</t>
+  </si>
+  <si>
+    <t>Bin 1 More Likely to leave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFH - High -more likely to stay </t>
+  </si>
+  <si>
+    <t>Monitor worklife balance</t>
+  </si>
+  <si>
+    <t>Work Life</t>
+  </si>
+  <si>
+    <t>Professional Development</t>
+  </si>
+  <si>
+    <t>Professional Development / Personal Development</t>
+  </si>
+  <si>
+    <t>Tie promotion if low to advance faster / Mentor if YAC low</t>
+  </si>
+  <si>
+    <t>Personal Development</t>
   </si>
 </sst>
 </file>
@@ -291,13 +327,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,7 +438,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B6:E27" totalsRowShown="0">
-  <autoFilter ref="B6:E27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="B6:E27" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Feature"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Discussion (Hypothesis)"/>
@@ -676,8 +721,8 @@
   <dimension ref="B1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,60 +784,69 @@
       <c r="D7" t="s">
         <v>33</v>
       </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -800,131 +854,191 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
         <v>44</v>
       </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
         <v>51</v>
       </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
         <v>53</v>
       </c>
-      <c r="D19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
         <v>55</v>
       </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
         <v>57</v>
       </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
@@ -932,7 +1046,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:5" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/R-Track/Course_02_DS_for_Business_Part_2/DS4B_HR201_Business_Analysis/05_evaluation/recommendation_strategy_development_sheet.xlsx
+++ b/R-Track/Course_02_DS_for_Business_Part_2/DS4B_HR201_Business_Analysis/05_evaluation/recommendation_strategy_development_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myplace.bms.com/personal/steven_ponce_bms_com/Documents/RStudio/Data_Science_for_Business/R-Track/Course_02_DS_for_Business_Part_2/DS4B_HR201_Business_Analysis/05_evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{4EA6F58B-1B57-4C34-8265-1010BD2473DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36093969-E037-4B3B-8A42-ACEE42553CF0}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{4EA6F58B-1B57-4C34-8265-1010BD2473DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E12D9A8B-52F1-4586-BE88-F539FEDC6184}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="29460" yWindow="1035" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strategy Worksheet" sheetId="1" r:id="rId1"/>
@@ -387,15 +387,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1341418</xdr:colOff>
+      <xdr:colOff>1389043</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>75167</xdr:rowOff>
+      <xdr:rowOff>103742</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -418,7 +418,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="200025" y="5762625"/>
+          <a:off x="247650" y="2714625"/>
           <a:ext cx="12857143" cy="8266667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -440,9 +440,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B6:E27" totalsRowShown="0">
   <autoFilter ref="B6:E27" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+      <filters>
+        <filter val="Personal Development"/>
+        <filter val="Professional Development / Personal Development"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="4">
@@ -720,9 +721,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,7 +775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -788,7 +789,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -910,7 +911,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>6</v>
       </c>
@@ -924,7 +925,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>7</v>
       </c>
@@ -938,7 +939,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>8</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>12</v>
       </c>

--- a/R-Track/Course_02_DS_for_Business_Part_2/DS4B_HR201_Business_Analysis/05_evaluation/recommendation_strategy_development_sheet.xlsx
+++ b/R-Track/Course_02_DS_for_Business_Part_2/DS4B_HR201_Business_Analysis/05_evaluation/recommendation_strategy_development_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myplace.bms.com/personal/steven_ponce_bms_com/Documents/RStudio/Data_Science_for_Business/R-Track/Course_02_DS_for_Business_Part_2/DS4B_HR201_Business_Analysis/05_evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{4EA6F58B-1B57-4C34-8265-1010BD2473DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E12D9A8B-52F1-4586-BE88-F539FEDC6184}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{4EA6F58B-1B57-4C34-8265-1010BD2473DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51C7CCF3-9865-4EF5-B286-4E6E97DBD370}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="29460" yWindow="1035" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="21600" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strategy Worksheet" sheetId="1" r:id="rId1"/>
@@ -441,8 +441,7 @@
   <autoFilter ref="B6:E27" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="3">
       <filters>
-        <filter val="Personal Development"/>
-        <filter val="Professional Development / Personal Development"/>
+        <filter val="Work Life"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -723,7 +722,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23:D23"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +774,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -825,7 +824,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -850,7 +849,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -875,7 +874,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -911,7 +910,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>6</v>
       </c>
@@ -925,7 +924,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>7</v>
       </c>
@@ -939,7 +938,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>8</v>
       </c>
@@ -953,7 +952,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>9</v>
       </c>
@@ -978,7 +977,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>10</v>
       </c>
@@ -1025,7 +1024,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>12</v>
       </c>
